--- a/files/MAIN_2023-12-26.xlsx
+++ b/files/MAIN_2023-12-26.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_stuff\automailer\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124A66AD-1E24-4FE1-A411-2430661BBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2071,8 +2077,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,13 +2154,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2192,7 +2206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2226,6 +2240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2260,9 +2275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2435,14 +2451,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3716933612</v>
       </c>
@@ -2518,7 +2542,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3786883030</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3790092207</v>
       </c>
@@ -2585,7 +2609,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3757235292</v>
       </c>
@@ -2623,7 +2647,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3729120053</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3791812116</v>
       </c>
@@ -2696,7 +2720,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3775716634</v>
       </c>
@@ -2734,7 +2758,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3773645758</v>
       </c>
@@ -2772,7 +2796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3774939289</v>
       </c>
@@ -2807,7 +2831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3780122428</v>
       </c>
@@ -2845,7 +2869,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3764392364</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3780053985</v>
       </c>
@@ -2924,7 +2948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3743191856</v>
       </c>
@@ -2956,7 +2980,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3778972020</v>
       </c>
@@ -2991,7 +3015,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3703618257</v>
       </c>
@@ -3029,7 +3053,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3575090531</v>
       </c>
@@ -3061,7 +3085,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3775163984</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3774450037</v>
       </c>
@@ -3131,7 +3155,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3693533935</v>
       </c>
@@ -3166,7 +3190,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3693534895</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3693536674</v>
       </c>
@@ -3236,7 +3260,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3767577724</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3774458964</v>
       </c>
@@ -3309,7 +3333,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3774216698</v>
       </c>
@@ -3338,7 +3362,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3778897611</v>
       </c>
@@ -3379,7 +3403,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3779110996</v>
       </c>
@@ -3417,7 +3441,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3785249512</v>
       </c>
@@ -3452,7 +3476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3791523331</v>
       </c>
@@ -3490,7 +3514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3779862000</v>
       </c>
@@ -3522,7 +3546,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3772981858</v>
       </c>
@@ -3560,7 +3584,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3789954309</v>
       </c>
@@ -3598,7 +3622,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3736477356</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3772507899</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>3759166127</v>
       </c>
@@ -3703,7 +3727,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3779912264</v>
       </c>
@@ -3741,7 +3765,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>3785250334</v>
       </c>
@@ -3773,7 +3797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>3616637587</v>
       </c>
@@ -3814,7 +3838,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3779064039</v>
       </c>
@@ -3852,7 +3876,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>3781553636</v>
       </c>
@@ -3893,7 +3917,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>3641015353</v>
       </c>
@@ -3931,7 +3955,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3727820700</v>
       </c>
@@ -3972,7 +3996,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3684120093</v>
       </c>
@@ -4013,7 +4037,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>3792429156</v>
       </c>
@@ -4048,7 +4072,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3775405705</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3721375973</v>
       </c>
@@ -4124,7 +4148,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>3777454584</v>
       </c>
@@ -4165,7 +4189,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>3783416267</v>
       </c>
@@ -4203,7 +4227,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3727428385</v>
       </c>
@@ -4244,7 +4268,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3725015864</v>
       </c>
@@ -4279,7 +4303,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3616269964</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3790491475</v>
       </c>
@@ -4352,7 +4376,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>3775365168</v>
       </c>
@@ -4387,7 +4411,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>3785005424</v>
       </c>
@@ -4425,7 +4449,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>3677794345</v>
       </c>
@@ -4463,7 +4487,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>3783626590</v>
       </c>
@@ -4501,7 +4525,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3790923638</v>
       </c>
@@ -4536,7 +4560,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>3747544708</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>3765837868</v>
       </c>
@@ -4612,7 +4636,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3761384366</v>
       </c>
@@ -4650,7 +4674,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>3587841044</v>
       </c>
@@ -4682,7 +4706,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>3731038493</v>
       </c>
@@ -4717,7 +4741,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>3738898017</v>
       </c>
@@ -4752,7 +4776,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>3789263548</v>
       </c>
@@ -4790,7 +4814,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -4828,7 +4852,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4890,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -4901,7 +4925,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
@@ -4939,7 +4963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -4979,74 +5003,74 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
-    <hyperlink ref="M6" r:id="rId5"/>
-    <hyperlink ref="M7" r:id="rId6"/>
-    <hyperlink ref="M8" r:id="rId7"/>
-    <hyperlink ref="M9" r:id="rId8"/>
-    <hyperlink ref="M10" r:id="rId9"/>
-    <hyperlink ref="M11" r:id="rId10"/>
-    <hyperlink ref="M12" r:id="rId11"/>
-    <hyperlink ref="M13" r:id="rId12"/>
-    <hyperlink ref="M14" r:id="rId13"/>
-    <hyperlink ref="M15" r:id="rId14"/>
-    <hyperlink ref="M16" r:id="rId15"/>
-    <hyperlink ref="M17" r:id="rId16"/>
-    <hyperlink ref="M18" r:id="rId17"/>
-    <hyperlink ref="M19" r:id="rId18"/>
-    <hyperlink ref="M20" r:id="rId19"/>
-    <hyperlink ref="M21" r:id="rId20"/>
-    <hyperlink ref="M22" r:id="rId21"/>
-    <hyperlink ref="M23" r:id="rId22"/>
-    <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="M25" r:id="rId24"/>
-    <hyperlink ref="M26" r:id="rId25"/>
-    <hyperlink ref="M27" r:id="rId26"/>
-    <hyperlink ref="M28" r:id="rId27"/>
-    <hyperlink ref="M29" r:id="rId28"/>
-    <hyperlink ref="M30" r:id="rId29"/>
-    <hyperlink ref="M31" r:id="rId30"/>
-    <hyperlink ref="M32" r:id="rId31"/>
-    <hyperlink ref="M33" r:id="rId32"/>
-    <hyperlink ref="M34" r:id="rId33"/>
-    <hyperlink ref="M35" r:id="rId34"/>
-    <hyperlink ref="M36" r:id="rId35"/>
-    <hyperlink ref="M37" r:id="rId36"/>
-    <hyperlink ref="M38" r:id="rId37"/>
-    <hyperlink ref="M39" r:id="rId38"/>
-    <hyperlink ref="M40" r:id="rId39"/>
-    <hyperlink ref="M41" r:id="rId40"/>
-    <hyperlink ref="M42" r:id="rId41"/>
-    <hyperlink ref="M43" r:id="rId42"/>
-    <hyperlink ref="M44" r:id="rId43"/>
-    <hyperlink ref="M45" r:id="rId44"/>
-    <hyperlink ref="M46" r:id="rId45"/>
-    <hyperlink ref="M47" r:id="rId46"/>
-    <hyperlink ref="M48" r:id="rId47"/>
-    <hyperlink ref="M49" r:id="rId48"/>
-    <hyperlink ref="M50" r:id="rId49"/>
-    <hyperlink ref="M51" r:id="rId50"/>
-    <hyperlink ref="M52" r:id="rId51"/>
-    <hyperlink ref="M53" r:id="rId52"/>
-    <hyperlink ref="M54" r:id="rId53"/>
-    <hyperlink ref="M55" r:id="rId54"/>
-    <hyperlink ref="M56" r:id="rId55"/>
-    <hyperlink ref="M57" r:id="rId56"/>
-    <hyperlink ref="M58" r:id="rId57"/>
-    <hyperlink ref="M59" r:id="rId58"/>
-    <hyperlink ref="M60" r:id="rId59"/>
-    <hyperlink ref="M61" r:id="rId60"/>
-    <hyperlink ref="M62" r:id="rId61"/>
-    <hyperlink ref="M63" r:id="rId62"/>
-    <hyperlink ref="M64" r:id="rId63"/>
-    <hyperlink ref="M65" r:id="rId64"/>
-    <hyperlink ref="M66" r:id="rId65"/>
-    <hyperlink ref="M67" r:id="rId66"/>
-    <hyperlink ref="M68" r:id="rId67"/>
-    <hyperlink ref="M69" r:id="rId68"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="M55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="M58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/MAIN_2023-12-26.xlsx
+++ b/files/MAIN_2023-12-26.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_stuff\automailer\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124A66AD-1E24-4FE1-A411-2430661BBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="376">
   <si>
     <t>date_logged</t>
   </si>
@@ -58,19 +52,16 @@
     <t>link</t>
   </si>
   <si>
-    <t>3775716634</t>
-  </si>
-  <si>
-    <t>3789282020</t>
-  </si>
-  <si>
-    <t>3725015864</t>
-  </si>
-  <si>
-    <t>3761384366</t>
-  </si>
-  <si>
-    <t>3789263548</t>
+    <t>3764392364</t>
+  </si>
+  <si>
+    <t>3772981858</t>
+  </si>
+  <si>
+    <t>3616637587</t>
+  </si>
+  <si>
+    <t>3792429156</t>
   </si>
   <si>
     <t>2023-12-25</t>
@@ -2077,8 +2068,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2154,21 +2145,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2206,7 +2189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2240,7 +2223,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2275,10 +2257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2451,22 +2432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2504,2573 +2477,2579 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>3716933612</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>3786883030</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3790092207</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3757235292</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>3729120053</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>3791812116</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>3775716634</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>3773645758</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>3774939289</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>3780122428</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>3764392364</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>3780053985</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>3743191856</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>3778972020</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>3703618257</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>3575090531</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>3775163984</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>3774450037</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>3693533935</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>3693534895</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>3693536674</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>3767577724</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>3774458964</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>3774216698</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>3778897611</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>3779110996</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>3785249512</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>3791523331</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>3779862000</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>3772981858</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>3789954309</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>3736477356</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>3772507899</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>3759166127</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>3779912264</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>3785250334</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>3616637587</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>3779064039</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>3781553636</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>3641015353</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>3727820700</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>3684120093</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>3792429156</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>3775405705</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>3721375973</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>3777454584</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>3783416267</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>3727428385</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>3725015864</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>3616269964</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>3790491475</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>3775365168</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>3785005424</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>3677794345</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>3783626590</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>3790923638</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>3747544708</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>3765837868</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>3761384366</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>3587841044</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>3731038493</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>3738898017</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>3789263548</v>
       </c>
       <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" t="s">
+        <v>265</v>
+      </c>
+      <c r="K64" t="s">
+        <v>280</v>
+      </c>
+      <c r="L64" t="s">
+        <v>310</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>3789282020</v>
+      </c>
+      <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" t="s">
         <v>176</v>
       </c>
-      <c r="I64" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="I65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" t="s">
         <v>266</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K65" t="s">
         <v>281</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L65" t="s">
         <v>311</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" t="s">
-        <v>210</v>
-      </c>
-      <c r="K65" t="s">
-        <v>269</v>
-      </c>
-      <c r="L65" t="s">
-        <v>288</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
         <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" t="s">
         <v>177</v>
       </c>
       <c r="I66" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J66" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="K66" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="L66" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" t="s">
+        <v>268</v>
+      </c>
+      <c r="L67" t="s">
+        <v>298</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" t="s">
-        <v>164</v>
-      </c>
-      <c r="J67" t="s">
-        <v>252</v>
-      </c>
-      <c r="K67" t="s">
-        <v>269</v>
-      </c>
-      <c r="L67" t="s">
-        <v>283</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
         <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>173</v>
+        <v>152</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
       </c>
       <c r="I68" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="K68" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L68" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
         <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" t="s">
-        <v>176</v>
-      </c>
-      <c r="I69" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="J69" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K69" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M8" r:id="rId7"/>
+    <hyperlink ref="M9" r:id="rId8"/>
+    <hyperlink ref="M10" r:id="rId9"/>
+    <hyperlink ref="M11" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M14" r:id="rId13"/>
+    <hyperlink ref="M15" r:id="rId14"/>
+    <hyperlink ref="M16" r:id="rId15"/>
+    <hyperlink ref="M17" r:id="rId16"/>
+    <hyperlink ref="M18" r:id="rId17"/>
+    <hyperlink ref="M19" r:id="rId18"/>
+    <hyperlink ref="M20" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M22" r:id="rId21"/>
+    <hyperlink ref="M23" r:id="rId22"/>
+    <hyperlink ref="M24" r:id="rId23"/>
+    <hyperlink ref="M25" r:id="rId24"/>
+    <hyperlink ref="M26" r:id="rId25"/>
+    <hyperlink ref="M27" r:id="rId26"/>
+    <hyperlink ref="M28" r:id="rId27"/>
+    <hyperlink ref="M29" r:id="rId28"/>
+    <hyperlink ref="M30" r:id="rId29"/>
+    <hyperlink ref="M31" r:id="rId30"/>
+    <hyperlink ref="M32" r:id="rId31"/>
+    <hyperlink ref="M33" r:id="rId32"/>
+    <hyperlink ref="M34" r:id="rId33"/>
+    <hyperlink ref="M35" r:id="rId34"/>
+    <hyperlink ref="M36" r:id="rId35"/>
+    <hyperlink ref="M37" r:id="rId36"/>
+    <hyperlink ref="M38" r:id="rId37"/>
+    <hyperlink ref="M39" r:id="rId38"/>
+    <hyperlink ref="M40" r:id="rId39"/>
+    <hyperlink ref="M41" r:id="rId40"/>
+    <hyperlink ref="M42" r:id="rId41"/>
+    <hyperlink ref="M43" r:id="rId42"/>
+    <hyperlink ref="M44" r:id="rId43"/>
+    <hyperlink ref="M45" r:id="rId44"/>
+    <hyperlink ref="M46" r:id="rId45"/>
+    <hyperlink ref="M47" r:id="rId46"/>
+    <hyperlink ref="M48" r:id="rId47"/>
+    <hyperlink ref="M49" r:id="rId48"/>
+    <hyperlink ref="M50" r:id="rId49"/>
+    <hyperlink ref="M51" r:id="rId50"/>
+    <hyperlink ref="M52" r:id="rId51"/>
+    <hyperlink ref="M53" r:id="rId52"/>
+    <hyperlink ref="M54" r:id="rId53"/>
+    <hyperlink ref="M55" r:id="rId54"/>
+    <hyperlink ref="M56" r:id="rId55"/>
+    <hyperlink ref="M57" r:id="rId56"/>
+    <hyperlink ref="M58" r:id="rId57"/>
+    <hyperlink ref="M59" r:id="rId58"/>
+    <hyperlink ref="M60" r:id="rId59"/>
+    <hyperlink ref="M61" r:id="rId60"/>
+    <hyperlink ref="M62" r:id="rId61"/>
+    <hyperlink ref="M63" r:id="rId62"/>
+    <hyperlink ref="M64" r:id="rId63"/>
+    <hyperlink ref="M65" r:id="rId64"/>
+    <hyperlink ref="M66" r:id="rId65"/>
+    <hyperlink ref="M67" r:id="rId66"/>
+    <hyperlink ref="M68" r:id="rId67"/>
+    <hyperlink ref="M69" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
